--- a/SiAOD 2/SiAOD 2 test.xlsx
+++ b/SiAOD 2/SiAOD 2 test.xlsx
@@ -231,11 +231,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="420748872"/>
-        <c:axId val="420740640"/>
+        <c:axId val="192050224"/>
+        <c:axId val="192050616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="420748872"/>
+        <c:axId val="192050224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -278,7 +278,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420740640"/>
+        <c:crossAx val="192050616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -286,7 +286,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="420740640"/>
+        <c:axId val="192050616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -337,7 +337,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420748872"/>
+        <c:crossAx val="192050224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -571,19 +571,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1115</c:v>
+                  <c:v>1902</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20404</c:v>
+                  <c:v>27950</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>240987</c:v>
+                  <c:v>403995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3338594</c:v>
+                  <c:v>5424361</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63953457</c:v>
+                  <c:v>101227845</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -599,11 +599,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="420739464"/>
-        <c:axId val="420746520"/>
+        <c:axId val="192051008"/>
+        <c:axId val="192043560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="420739464"/>
+        <c:axId val="192051008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -646,7 +646,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420746520"/>
+        <c:crossAx val="192043560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -654,7 +654,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="420746520"/>
+        <c:axId val="192043560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -705,7 +705,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420739464"/>
+        <c:crossAx val="192051008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2229,7 +2229,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E6" sqref="E2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2266,8 +2266,8 @@
         <v>460.51701859880916</v>
       </c>
       <c r="D2">
-        <f>733+382</f>
-        <v>1115</v>
+        <f>1481+421</f>
+        <v>1902</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2282,8 +2282,8 @@
         <v>6907.7552789821366</v>
       </c>
       <c r="D3">
-        <f>14020+6384</f>
-        <v>20404</v>
+        <f>22393+5557</f>
+        <v>27950</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2298,8 +2298,8 @@
         <v>92103.403719761831</v>
       </c>
       <c r="D4">
-        <f>161130+79857</f>
-        <v>240987</v>
+        <f>318069+85926</f>
+        <v>403995</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2314,8 +2314,8 @@
         <v>1151292.546497023</v>
       </c>
       <c r="D5">
-        <f>2151832+1186762</f>
-        <v>3338594</v>
+        <f>4189173+1235188</f>
+        <v>5424361</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2330,8 +2330,8 @@
         <v>13815510.557964273</v>
       </c>
       <c r="D6">
-        <f>37268645+26684812</f>
-        <v>63953457</v>
+        <f>73511955+27715890</f>
+        <v>101227845</v>
       </c>
     </row>
   </sheetData>
